--- a/resultas.xlsx
+++ b/resultas.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\hue\uni\9semestre\iaa\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felipe\Documents\iaa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFD3734-E402-4F48-ACB0-DB571742F287}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F651CE2F-5BD4-4C41-90FF-22FA43FF4AEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{75A45C1E-E3FD-4525-BAAD-0446E515CCAC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{75A45C1E-E3FD-4525-BAAD-0446E515CCAC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="TEST" sheetId="4" r:id="rId2"/>
+    <sheet name="TEST" sheetId="4" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId2"/>
     <sheet name="beta test" sheetId="2" r:id="rId3"/>
     <sheet name="max_T test" sheetId="3" r:id="rId4"/>
     <sheet name="max_T test2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="308">
   <si>
     <t>Instance</t>
   </si>
@@ -949,6 +950,18 @@
   </si>
   <si>
     <t>20_7_3.0.txt</t>
+  </si>
+  <si>
+    <t>ANTS</t>
+  </si>
+  <si>
+    <t>ANT Best</t>
+  </si>
+  <si>
+    <t>ANT Average</t>
+  </si>
+  <si>
+    <t>SAv2</t>
   </si>
 </sst>
 </file>
@@ -993,12 +1006,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1015,7 +1058,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1038,6 +1081,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1047,6 +1095,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8"/>
@@ -4321,6 +4384,1264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CF45F9-0B78-4698-972E-C92E53AE19EB}">
+  <dimension ref="A5:S44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B5" s="14"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" s="16">
+        <v>765</v>
+      </c>
+      <c r="E6" s="16">
+        <v>390</v>
+      </c>
+      <c r="F6" s="16">
+        <v>283</v>
+      </c>
+      <c r="G6" s="16">
+        <v>315</v>
+      </c>
+      <c r="H6" s="16">
+        <v>346</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="L6" s="15">
+        <v>765</v>
+      </c>
+      <c r="M6" s="15">
+        <v>390</v>
+      </c>
+      <c r="N6" s="15">
+        <v>283</v>
+      </c>
+      <c r="O6" s="15">
+        <v>315</v>
+      </c>
+      <c r="P6" s="15">
+        <v>346</v>
+      </c>
+      <c r="Q6" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="R6" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="3">
+        <v>387.99</v>
+      </c>
+      <c r="D7">
+        <v>376.47</v>
+      </c>
+      <c r="E7" s="2">
+        <v>402.66500000000002</v>
+      </c>
+      <c r="F7" s="2">
+        <v>394.91300000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>360.68200000000002</v>
+      </c>
+      <c r="H7" s="2">
+        <v>360.68200000000002</v>
+      </c>
+      <c r="I7" s="3">
+        <f>AVERAGE(D7:H7)</f>
+        <v>379.08240000000001</v>
+      </c>
+      <c r="J7" s="3">
+        <f>MIN(D7:H7)</f>
+        <v>360.68200000000002</v>
+      </c>
+      <c r="K7" s="3">
+        <v>358.63</v>
+      </c>
+      <c r="L7" s="3">
+        <v>358.31</v>
+      </c>
+      <c r="M7" s="3">
+        <v>358.31</v>
+      </c>
+      <c r="N7" s="3">
+        <v>358.31</v>
+      </c>
+      <c r="O7" s="3">
+        <v>358.31</v>
+      </c>
+      <c r="P7" s="3">
+        <v>358.31</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>AVERAGE(L7:P7)</f>
+        <v>358.31</v>
+      </c>
+      <c r="R7" s="3">
+        <f>MIN(L7:P7)</f>
+        <v>358.31</v>
+      </c>
+      <c r="S7" s="3">
+        <v>358.63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1064.75</v>
+      </c>
+      <c r="D8" s="3">
+        <v>710.11099999999999</v>
+      </c>
+      <c r="E8" s="3">
+        <v>561.23800000000006</v>
+      </c>
+      <c r="F8" s="3">
+        <v>788.61800000000005</v>
+      </c>
+      <c r="G8" s="3">
+        <v>511.19099999999997</v>
+      </c>
+      <c r="H8" s="3">
+        <v>487.50599999999997</v>
+      </c>
+      <c r="I8" s="3">
+        <f>AVERAGE(D8:H8)</f>
+        <v>611.7328</v>
+      </c>
+      <c r="J8" s="3">
+        <f>MIN(D8:H8)</f>
+        <v>487.50599999999997</v>
+      </c>
+      <c r="K8" s="3">
+        <v>703.04</v>
+      </c>
+      <c r="L8" s="3">
+        <v>837.09299999999996</v>
+      </c>
+      <c r="M8" s="3">
+        <v>850.57</v>
+      </c>
+      <c r="N8" s="3">
+        <v>851.86400000000003</v>
+      </c>
+      <c r="O8" s="3">
+        <v>818.58799999999997</v>
+      </c>
+      <c r="P8" s="3">
+        <v>851.86400000000003</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>AVERAGE(L8:P8)</f>
+        <v>841.99579999999992</v>
+      </c>
+      <c r="R8" s="3">
+        <f>MIN(L8:P8)</f>
+        <v>818.58799999999997</v>
+      </c>
+      <c r="S8" s="3">
+        <v>703.04</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="3">
+        <v>677.005</v>
+      </c>
+      <c r="D9" s="3">
+        <v>591.95899999999995</v>
+      </c>
+      <c r="E9" s="3">
+        <v>510.41699999999997</v>
+      </c>
+      <c r="F9" s="3">
+        <v>365.93099999999998</v>
+      </c>
+      <c r="G9" s="3">
+        <v>478.70600000000002</v>
+      </c>
+      <c r="H9" s="3">
+        <v>656.279</v>
+      </c>
+      <c r="I9" s="3">
+        <f>AVERAGE(D9:H9)</f>
+        <v>520.65840000000003</v>
+      </c>
+      <c r="J9" s="3">
+        <f>MIN(D9:H9)</f>
+        <v>365.93099999999998</v>
+      </c>
+      <c r="K9" s="3">
+        <v>477.66</v>
+      </c>
+      <c r="L9" s="3">
+        <v>530.67899999999997</v>
+      </c>
+      <c r="M9" s="3">
+        <v>541.524</v>
+      </c>
+      <c r="N9" s="3">
+        <v>538.85199999999998</v>
+      </c>
+      <c r="O9" s="3">
+        <v>565.78499999999997</v>
+      </c>
+      <c r="P9" s="3">
+        <v>532.29999999999995</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>AVERAGE(L9:P9)</f>
+        <v>541.82799999999986</v>
+      </c>
+      <c r="R9" s="3">
+        <f>MIN(L9:P9)</f>
+        <v>530.67899999999997</v>
+      </c>
+      <c r="S9" s="3">
+        <v>477.66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2066.9</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1406.37</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1440.08</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1044.6199999999999</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1293.69</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1304.48</v>
+      </c>
+      <c r="I10" s="3">
+        <f>AVERAGE(D10:H10)</f>
+        <v>1297.848</v>
+      </c>
+      <c r="J10" s="3">
+        <f>MIN(D10:H10)</f>
+        <v>1044.6199999999999</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1485.82</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1961.06</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1887.28</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1893.41</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1921.71</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1914.42</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>AVERAGE(L10:P10)</f>
+        <v>1915.5760000000002</v>
+      </c>
+      <c r="R10" s="3">
+        <f>MIN(L10:P10)</f>
+        <v>1887.28</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1485.82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2769.85</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1638.87</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1848.3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1783.57</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1563.77</v>
+      </c>
+      <c r="H11" s="3">
+        <v>2008.47</v>
+      </c>
+      <c r="I11" s="3">
+        <f>AVERAGE(D11:H11)</f>
+        <v>1768.596</v>
+      </c>
+      <c r="J11" s="3">
+        <f>MIN(D11:H11)</f>
+        <v>1563.77</v>
+      </c>
+      <c r="K11" s="3">
+        <v>2057.0700000000002</v>
+      </c>
+      <c r="L11" s="3">
+        <v>2567.2600000000002</v>
+      </c>
+      <c r="M11" s="3">
+        <v>2538.25</v>
+      </c>
+      <c r="N11" s="3">
+        <v>2585.3000000000002</v>
+      </c>
+      <c r="O11" s="3">
+        <v>2535.0500000000002</v>
+      </c>
+      <c r="P11" s="3">
+        <v>2515.9699999999998</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>AVERAGE(L11:P11)</f>
+        <v>2548.366</v>
+      </c>
+      <c r="R11" s="3">
+        <f>MIN(L11:P11)</f>
+        <v>2515.9699999999998</v>
+      </c>
+      <c r="S11" s="3">
+        <v>2057.0700000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="3">
+        <v>127.372</v>
+      </c>
+      <c r="D12" s="3">
+        <v>69.932699999999997</v>
+      </c>
+      <c r="E12" s="3">
+        <v>103.72199999999999</v>
+      </c>
+      <c r="F12" s="3">
+        <v>124.121</v>
+      </c>
+      <c r="G12" s="3">
+        <v>67.289900000000003</v>
+      </c>
+      <c r="H12" s="3">
+        <v>86.269199999999998</v>
+      </c>
+      <c r="I12" s="3">
+        <f>AVERAGE(D12:H12)</f>
+        <v>90.266959999999997</v>
+      </c>
+      <c r="J12" s="3">
+        <f>MIN(D12:H12)</f>
+        <v>67.289900000000003</v>
+      </c>
+      <c r="K12" s="3">
+        <v>83.78</v>
+      </c>
+      <c r="L12" s="3">
+        <v>126.794</v>
+      </c>
+      <c r="M12" s="3">
+        <v>133.58199999999999</v>
+      </c>
+      <c r="N12" s="3">
+        <v>129.18700000000001</v>
+      </c>
+      <c r="O12" s="3">
+        <v>126.672</v>
+      </c>
+      <c r="P12" s="3">
+        <v>125.083</v>
+      </c>
+      <c r="Q12" s="3">
+        <f>AVERAGE(L12:P12)</f>
+        <v>128.2636</v>
+      </c>
+      <c r="R12" s="3">
+        <f>MIN(L12:P12)</f>
+        <v>125.083</v>
+      </c>
+      <c r="S12" s="3">
+        <v>83.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1093.01</v>
+      </c>
+      <c r="D13" s="3">
+        <v>277.73399999999998</v>
+      </c>
+      <c r="E13" s="3">
+        <v>510.99400000000003</v>
+      </c>
+      <c r="F13" s="3">
+        <v>395.16</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1037.99</v>
+      </c>
+      <c r="H13" s="3">
+        <v>327.79399999999998</v>
+      </c>
+      <c r="I13" s="3">
+        <f>AVERAGE(D13:H13)</f>
+        <v>509.93439999999998</v>
+      </c>
+      <c r="J13" s="3">
+        <f>MIN(D13:H13)</f>
+        <v>277.73399999999998</v>
+      </c>
+      <c r="K13" s="3">
+        <v>816.7</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1220.57</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1250.8</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1263.44</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1236.0999999999999</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1264.9100000000001</v>
+      </c>
+      <c r="Q13" s="3">
+        <f>AVERAGE(L13:P13)</f>
+        <v>1247.164</v>
+      </c>
+      <c r="R13" s="3">
+        <f>MIN(L13:P13)</f>
+        <v>1220.57</v>
+      </c>
+      <c r="S13" s="3">
+        <v>816.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C14" s="3">
+        <v>203.155</v>
+      </c>
+      <c r="D14" s="3">
+        <v>147.00700000000001</v>
+      </c>
+      <c r="E14" s="3">
+        <v>125.836</v>
+      </c>
+      <c r="F14" s="3">
+        <v>157.73500000000001</v>
+      </c>
+      <c r="G14" s="3">
+        <v>164.98599999999999</v>
+      </c>
+      <c r="H14" s="3">
+        <v>154.864</v>
+      </c>
+      <c r="I14" s="3">
+        <f>AVERAGE(D14:H14)</f>
+        <v>150.08560000000003</v>
+      </c>
+      <c r="J14" s="3">
+        <f>MIN(D14:H14)</f>
+        <v>125.836</v>
+      </c>
+      <c r="K14" s="3">
+        <v>132.93</v>
+      </c>
+      <c r="L14" s="3">
+        <v>197.506</v>
+      </c>
+      <c r="M14" s="3">
+        <v>196.559</v>
+      </c>
+      <c r="N14" s="3">
+        <v>196.41399999999999</v>
+      </c>
+      <c r="O14" s="3">
+        <v>193.554</v>
+      </c>
+      <c r="P14" s="3">
+        <v>174.583</v>
+      </c>
+      <c r="Q14" s="3">
+        <f>AVERAGE(L14:P14)</f>
+        <v>191.72319999999999</v>
+      </c>
+      <c r="R14" s="3">
+        <f>MIN(L14:P14)</f>
+        <v>174.583</v>
+      </c>
+      <c r="S14" s="3">
+        <v>132.93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1224.92</v>
+      </c>
+      <c r="D15" s="3">
+        <v>814.42</v>
+      </c>
+      <c r="E15" s="3">
+        <v>475.78800000000001</v>
+      </c>
+      <c r="F15" s="3">
+        <v>446.21300000000002</v>
+      </c>
+      <c r="G15" s="3">
+        <v>814.44500000000005</v>
+      </c>
+      <c r="H15" s="3">
+        <v>673.27099999999996</v>
+      </c>
+      <c r="I15" s="3">
+        <f>AVERAGE(D15:H15)</f>
+        <v>644.8273999999999</v>
+      </c>
+      <c r="J15" s="3">
+        <f>MIN(D15:H15)</f>
+        <v>446.21300000000002</v>
+      </c>
+      <c r="K15" s="3">
+        <v>845.55</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1220.57</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1250.8</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1263.44</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1236.0999999999999</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1264.9100000000001</v>
+      </c>
+      <c r="Q15" s="3">
+        <f>AVERAGE(L15:P15)</f>
+        <v>1247.164</v>
+      </c>
+      <c r="R15" s="3">
+        <f>MIN(L15:P15)</f>
+        <v>1220.57</v>
+      </c>
+      <c r="S15" s="3">
+        <v>845.55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D16" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3">
+        <v>376.47</v>
+      </c>
+      <c r="E17" s="3">
+        <v>360.68200000000002</v>
+      </c>
+      <c r="F17" s="3">
+        <v>402.66500000000002</v>
+      </c>
+      <c r="G17" s="3">
+        <v>360.68200000000002</v>
+      </c>
+      <c r="H17" s="3">
+        <v>360.68200000000002</v>
+      </c>
+      <c r="I17" s="3">
+        <f>AVERAGE(D17:H17)</f>
+        <v>372.2362</v>
+      </c>
+      <c r="J17" s="3">
+        <f>MIN(D17:H17)</f>
+        <v>360.68200000000002</v>
+      </c>
+      <c r="K17" s="3">
+        <v>358.63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3">
+        <v>861.06899999999996</v>
+      </c>
+      <c r="E18" s="3">
+        <v>601.649</v>
+      </c>
+      <c r="F18" s="3">
+        <v>449.02199999999999</v>
+      </c>
+      <c r="G18" s="3">
+        <v>936.84100000000001</v>
+      </c>
+      <c r="H18" s="3">
+        <v>787.53</v>
+      </c>
+      <c r="I18" s="3">
+        <f>AVERAGE(D18:H18)</f>
+        <v>727.22219999999993</v>
+      </c>
+      <c r="J18" s="3">
+        <f>MIN(D18:H18)</f>
+        <v>449.02199999999999</v>
+      </c>
+      <c r="K18" s="3">
+        <v>703.04</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3">
+        <v>703.12099999999998</v>
+      </c>
+      <c r="E19" s="3">
+        <v>678.08399999999995</v>
+      </c>
+      <c r="F19" s="3">
+        <v>760.423</v>
+      </c>
+      <c r="G19" s="3">
+        <v>564.95000000000005</v>
+      </c>
+      <c r="H19" s="3">
+        <v>597.23599999999999</v>
+      </c>
+      <c r="I19" s="3">
+        <f>AVERAGE(D19:H19)</f>
+        <v>660.76279999999986</v>
+      </c>
+      <c r="J19" s="3">
+        <f>MIN(D19:H19)</f>
+        <v>564.95000000000005</v>
+      </c>
+      <c r="K19" s="3">
+        <v>477.66</v>
+      </c>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <v>1349.51</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1271.1400000000001</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1232.22</v>
+      </c>
+      <c r="G20" s="3">
+        <v>1194.78</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1125.24</v>
+      </c>
+      <c r="I20" s="3">
+        <f>AVERAGE(D20:H20)</f>
+        <v>1234.578</v>
+      </c>
+      <c r="J20" s="3">
+        <f>MIN(D20:H20)</f>
+        <v>1125.24</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1485.82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
+        <v>1948.07</v>
+      </c>
+      <c r="E21" s="3">
+        <v>989.68499999999995</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2076.0500000000002</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2091.5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1732.83</v>
+      </c>
+      <c r="I21" s="3">
+        <f>AVERAGE(D21:H21)</f>
+        <v>1767.627</v>
+      </c>
+      <c r="J21" s="3">
+        <f>MIN(D21:H21)</f>
+        <v>989.68499999999995</v>
+      </c>
+      <c r="K21" s="3">
+        <v>2057.0700000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <v>70.821600000000004</v>
+      </c>
+      <c r="E22" s="3">
+        <v>55.625799999999998</v>
+      </c>
+      <c r="F22" s="3">
+        <v>91.346999999999994</v>
+      </c>
+      <c r="G22" s="3">
+        <v>115.246</v>
+      </c>
+      <c r="H22" s="3">
+        <v>85.623800000000003</v>
+      </c>
+      <c r="I22" s="3">
+        <f>AVERAGE(D22:H22)</f>
+        <v>83.732839999999996</v>
+      </c>
+      <c r="J22" s="3">
+        <f>MIN(D22:H22)</f>
+        <v>55.625799999999998</v>
+      </c>
+      <c r="K22" s="3">
+        <v>83.78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <v>614</v>
+      </c>
+      <c r="E23" s="3">
+        <v>955.74400000000003</v>
+      </c>
+      <c r="F23" s="3">
+        <v>869.27099999999996</v>
+      </c>
+      <c r="G23" s="3">
+        <v>653.69600000000003</v>
+      </c>
+      <c r="H23" s="3">
+        <v>621.30100000000004</v>
+      </c>
+      <c r="I23" s="3">
+        <f>AVERAGE(D23:H23)</f>
+        <v>742.80240000000003</v>
+      </c>
+      <c r="J23" s="3">
+        <f>MIN(D23:H23)</f>
+        <v>614</v>
+      </c>
+      <c r="K23" s="3">
+        <v>816.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3">
+        <v>138.83099999999999</v>
+      </c>
+      <c r="E24" s="3">
+        <v>138.92599999999999</v>
+      </c>
+      <c r="F24" s="3">
+        <v>105.672</v>
+      </c>
+      <c r="G24" s="3">
+        <v>129.321</v>
+      </c>
+      <c r="H24" s="3">
+        <v>138.34</v>
+      </c>
+      <c r="I24" s="3">
+        <f>AVERAGE(D24:H24)</f>
+        <v>130.21800000000002</v>
+      </c>
+      <c r="J24" s="3">
+        <f>MIN(D24:H24)</f>
+        <v>105.672</v>
+      </c>
+      <c r="K24" s="3">
+        <v>132.93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3">
+        <v>893.05200000000002</v>
+      </c>
+      <c r="E25" s="3">
+        <v>874.75599999999997</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1127.56</v>
+      </c>
+      <c r="G25" s="3">
+        <v>950.94</v>
+      </c>
+      <c r="H25" s="3">
+        <v>966.03599999999994</v>
+      </c>
+      <c r="I25" s="3">
+        <f>AVERAGE(D25:H25)</f>
+        <v>962.46879999999999</v>
+      </c>
+      <c r="J25" s="3">
+        <f>MIN(D25:H25)</f>
+        <v>874.75599999999997</v>
+      </c>
+      <c r="K25" s="3">
+        <v>845.55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K30" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="C35" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>306</v>
+      </c>
+      <c r="G35" s="24" t="s">
+        <v>305</v>
+      </c>
+      <c r="H35" s="24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="C36" s="27">
+        <v>387.99</v>
+      </c>
+      <c r="D36" s="27">
+        <v>372.2362</v>
+      </c>
+      <c r="E36" s="28">
+        <v>360.68200000000002</v>
+      </c>
+      <c r="F36" s="27">
+        <v>358.31</v>
+      </c>
+      <c r="G36" s="27">
+        <v>358.31</v>
+      </c>
+      <c r="H36" s="28">
+        <v>358.63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="25"/>
+      <c r="B37" s="26" t="s">
+        <v>284</v>
+      </c>
+      <c r="C37" s="27">
+        <v>1064.75</v>
+      </c>
+      <c r="D37" s="27">
+        <v>727.22219999999993</v>
+      </c>
+      <c r="E37" s="27">
+        <v>449.02199999999999</v>
+      </c>
+      <c r="F37" s="27">
+        <v>841.99579999999992</v>
+      </c>
+      <c r="G37" s="27">
+        <v>818.58799999999997</v>
+      </c>
+      <c r="H37" s="27">
+        <v>703.04</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="C38" s="27">
+        <v>677.005</v>
+      </c>
+      <c r="D38" s="27">
+        <v>660.76279999999986</v>
+      </c>
+      <c r="E38" s="27">
+        <v>564.95000000000005</v>
+      </c>
+      <c r="F38" s="27">
+        <v>541.82799999999986</v>
+      </c>
+      <c r="G38" s="27">
+        <v>530.67899999999997</v>
+      </c>
+      <c r="H38" s="27">
+        <v>477.66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="25"/>
+      <c r="B39" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="C39" s="27">
+        <v>2066.9</v>
+      </c>
+      <c r="D39" s="27">
+        <v>1234.578</v>
+      </c>
+      <c r="E39" s="27">
+        <v>1125.24</v>
+      </c>
+      <c r="F39" s="27">
+        <v>1915.5760000000002</v>
+      </c>
+      <c r="G39" s="27">
+        <v>1887.28</v>
+      </c>
+      <c r="H39" s="27">
+        <v>1485.82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="25"/>
+      <c r="B40" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="C40" s="27">
+        <v>2769.85</v>
+      </c>
+      <c r="D40" s="27">
+        <v>1767.627</v>
+      </c>
+      <c r="E40" s="27">
+        <v>989.68499999999995</v>
+      </c>
+      <c r="F40" s="27">
+        <v>2548.366</v>
+      </c>
+      <c r="G40" s="27">
+        <v>2515.9699999999998</v>
+      </c>
+      <c r="H40" s="27">
+        <v>2057.0700000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>288</v>
+      </c>
+      <c r="C41" s="27">
+        <v>127.372</v>
+      </c>
+      <c r="D41" s="27">
+        <v>83.732839999999996</v>
+      </c>
+      <c r="E41" s="27">
+        <v>55.625799999999998</v>
+      </c>
+      <c r="F41" s="27">
+        <v>128.2636</v>
+      </c>
+      <c r="G41" s="27">
+        <v>125.083</v>
+      </c>
+      <c r="H41" s="27">
+        <v>83.78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="25"/>
+      <c r="B42" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="C42" s="27">
+        <v>1093.01</v>
+      </c>
+      <c r="D42" s="27">
+        <v>742.80240000000003</v>
+      </c>
+      <c r="E42" s="27">
+        <v>614</v>
+      </c>
+      <c r="F42" s="27">
+        <v>1247.164</v>
+      </c>
+      <c r="G42" s="27">
+        <v>1220.57</v>
+      </c>
+      <c r="H42" s="27">
+        <v>816.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="C43" s="27">
+        <v>203.155</v>
+      </c>
+      <c r="D43" s="27">
+        <v>130.21800000000002</v>
+      </c>
+      <c r="E43" s="27">
+        <v>105.672</v>
+      </c>
+      <c r="F43" s="27">
+        <v>191.72319999999999</v>
+      </c>
+      <c r="G43" s="27">
+        <v>174.583</v>
+      </c>
+      <c r="H43" s="27">
+        <v>132.93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="25"/>
+      <c r="B44" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="C44" s="27">
+        <v>1224.92</v>
+      </c>
+      <c r="D44" s="27">
+        <v>962.46879999999999</v>
+      </c>
+      <c r="E44" s="27">
+        <v>874.75599999999997</v>
+      </c>
+      <c r="F44" s="27">
+        <v>1247.164</v>
+      </c>
+      <c r="G44" s="27">
+        <v>1220.57</v>
+      </c>
+      <c r="H44" s="27">
+        <v>845.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A40"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="A41:A42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC84FAC-89C1-4910-88F3-98A8382E7BA6}">
   <dimension ref="A1:AB182"/>
   <sheetViews>
@@ -4341,38 +5662,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
       <c r="E1" s="9"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="19" t="s">
         <v>254</v>
       </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
       <c r="T1" s="9"/>
       <c r="U1" s="8"/>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="20" t="s">
         <v>256</v>
       </c>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -11592,641 +12913,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5CF45F9-0B78-4698-972E-C92E53AE19EB}">
-  <dimension ref="A5:K30"/>
-  <sheetViews>
-    <sheetView topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D5" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>291</v>
-      </c>
-      <c r="C6" t="s">
-        <v>292</v>
-      </c>
-      <c r="D6">
-        <v>783</v>
-      </c>
-      <c r="E6">
-        <v>390</v>
-      </c>
-      <c r="F6">
-        <v>283</v>
-      </c>
-      <c r="G6">
-        <v>315</v>
-      </c>
-      <c r="H6">
-        <v>346</v>
-      </c>
-      <c r="I6" t="s">
-        <v>296</v>
-      </c>
-      <c r="J6" t="s">
-        <v>297</v>
-      </c>
-      <c r="K6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="C7" s="3">
-        <v>387.99</v>
-      </c>
-      <c r="D7">
-        <v>376.47</v>
-      </c>
-      <c r="E7" s="2">
-        <v>402.66500000000002</v>
-      </c>
-      <c r="F7" s="2">
-        <v>394.91300000000001</v>
-      </c>
-      <c r="G7" s="2">
-        <v>360.68200000000002</v>
-      </c>
-      <c r="H7" s="2">
-        <v>360.68200000000002</v>
-      </c>
-      <c r="I7" s="3">
-        <f>AVERAGE(D7:H7)</f>
-        <v>379.08240000000001</v>
-      </c>
-      <c r="J7" s="3">
-        <f>MIN(D7:H7)</f>
-        <v>360.68200000000002</v>
-      </c>
-      <c r="K7" s="3">
-        <v>358.63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1064.75</v>
-      </c>
-      <c r="D8" s="3">
-        <v>710.11099999999999</v>
-      </c>
-      <c r="E8" s="3">
-        <v>561.23800000000006</v>
-      </c>
-      <c r="F8" s="3">
-        <v>788.61800000000005</v>
-      </c>
-      <c r="G8" s="3">
-        <v>511.19099999999997</v>
-      </c>
-      <c r="H8" s="3">
-        <v>487.50599999999997</v>
-      </c>
-      <c r="I8" s="3">
-        <f t="shared" ref="I8:I15" si="0">AVERAGE(D8:H8)</f>
-        <v>611.7328</v>
-      </c>
-      <c r="J8" s="3">
-        <f t="shared" ref="J8:J15" si="1">MIN(D8:H8)</f>
-        <v>487.50599999999997</v>
-      </c>
-      <c r="K8" s="3">
-        <v>703.04</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="C9" s="3">
-        <v>677.005</v>
-      </c>
-      <c r="D9" s="3">
-        <v>591.95899999999995</v>
-      </c>
-      <c r="E9" s="3">
-        <v>510.41699999999997</v>
-      </c>
-      <c r="F9" s="3">
-        <v>365.93099999999998</v>
-      </c>
-      <c r="G9" s="3">
-        <v>478.70600000000002</v>
-      </c>
-      <c r="H9" s="3">
-        <v>656.279</v>
-      </c>
-      <c r="I9" s="3">
-        <f t="shared" si="0"/>
-        <v>520.65840000000003</v>
-      </c>
-      <c r="J9" s="3">
-        <f t="shared" si="1"/>
-        <v>365.93099999999998</v>
-      </c>
-      <c r="K9" s="3">
-        <v>477.66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="C10" s="3">
-        <v>2066.9</v>
-      </c>
-      <c r="D10" s="3">
-        <v>1406.37</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1440.08</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1044.6199999999999</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1293.69</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1304.48</v>
-      </c>
-      <c r="I10" s="3">
-        <f t="shared" si="0"/>
-        <v>1297.848</v>
-      </c>
-      <c r="J10" s="3">
-        <f t="shared" si="1"/>
-        <v>1044.6199999999999</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1485.82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="C11" s="3">
-        <v>2769.85</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1638.87</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1848.3</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1783.57</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1563.77</v>
-      </c>
-      <c r="H11" s="3">
-        <v>2008.47</v>
-      </c>
-      <c r="I11" s="3">
-        <f t="shared" si="0"/>
-        <v>1768.596</v>
-      </c>
-      <c r="J11" s="3">
-        <f t="shared" si="1"/>
-        <v>1563.77</v>
-      </c>
-      <c r="K11" s="3">
-        <v>2057.0700000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="C12" s="3">
-        <v>127.372</v>
-      </c>
-      <c r="D12" s="3">
-        <v>69.932699999999997</v>
-      </c>
-      <c r="E12" s="3">
-        <v>103.72199999999999</v>
-      </c>
-      <c r="F12" s="3">
-        <v>124.121</v>
-      </c>
-      <c r="G12" s="3">
-        <v>67.289900000000003</v>
-      </c>
-      <c r="H12" s="3">
-        <v>86.269199999999998</v>
-      </c>
-      <c r="I12" s="3">
-        <f t="shared" si="0"/>
-        <v>90.266959999999997</v>
-      </c>
-      <c r="J12" s="3">
-        <f t="shared" si="1"/>
-        <v>67.289900000000003</v>
-      </c>
-      <c r="K12" s="3">
-        <v>83.78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1093.01</v>
-      </c>
-      <c r="D13" s="3">
-        <v>277.73399999999998</v>
-      </c>
-      <c r="E13" s="3">
-        <v>510.99400000000003</v>
-      </c>
-      <c r="F13" s="3">
-        <v>395.16</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1037.99</v>
-      </c>
-      <c r="H13" s="3">
-        <v>327.79399999999998</v>
-      </c>
-      <c r="I13" s="3">
-        <f t="shared" si="0"/>
-        <v>509.93439999999998</v>
-      </c>
-      <c r="J13" s="3">
-        <f t="shared" si="1"/>
-        <v>277.73399999999998</v>
-      </c>
-      <c r="K13" s="3">
-        <v>816.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C14" s="3">
-        <v>203.155</v>
-      </c>
-      <c r="D14" s="3">
-        <v>147.00700000000001</v>
-      </c>
-      <c r="E14" s="3">
-        <v>125.836</v>
-      </c>
-      <c r="F14" s="3">
-        <v>157.73500000000001</v>
-      </c>
-      <c r="G14" s="3">
-        <v>164.98599999999999</v>
-      </c>
-      <c r="H14" s="3">
-        <v>154.864</v>
-      </c>
-      <c r="I14" s="3">
-        <f t="shared" si="0"/>
-        <v>150.08560000000003</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" si="1"/>
-        <v>125.836</v>
-      </c>
-      <c r="K14" s="3">
-        <v>132.93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1224.92</v>
-      </c>
-      <c r="D15" s="3">
-        <v>814.42</v>
-      </c>
-      <c r="E15" s="3">
-        <v>475.78800000000001</v>
-      </c>
-      <c r="F15" s="3">
-        <v>446.21300000000002</v>
-      </c>
-      <c r="G15" s="3">
-        <v>814.44500000000005</v>
-      </c>
-      <c r="H15" s="3">
-        <v>673.27099999999996</v>
-      </c>
-      <c r="I15" s="3">
-        <f t="shared" si="0"/>
-        <v>644.8273999999999</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="1"/>
-        <v>446.21300000000002</v>
-      </c>
-      <c r="K15" s="3">
-        <v>845.55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>291</v>
-      </c>
-      <c r="C21" t="s">
-        <v>292</v>
-      </c>
-      <c r="D21" t="s">
-        <v>296</v>
-      </c>
-      <c r="E21" t="s">
-        <v>297</v>
-      </c>
-      <c r="F21" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="C22" s="3">
-        <v>387.99</v>
-      </c>
-      <c r="D22" s="3">
-        <v>379.08240000000001</v>
-      </c>
-      <c r="E22" s="2">
-        <v>360.68200000000002</v>
-      </c>
-      <c r="F22" s="2">
-        <v>358.63</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="C23" s="3">
-        <v>1064.75</v>
-      </c>
-      <c r="D23" s="3">
-        <v>611.7328</v>
-      </c>
-      <c r="E23" s="3">
-        <v>487.50599999999997</v>
-      </c>
-      <c r="F23" s="3">
-        <v>703.04</v>
-      </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="16" t="s">
-        <v>254</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="C24" s="3">
-        <v>677.005</v>
-      </c>
-      <c r="D24" s="3">
-        <v>520.65840000000003</v>
-      </c>
-      <c r="E24" s="3">
-        <v>365.93099999999998</v>
-      </c>
-      <c r="F24" s="3">
-        <v>477.66</v>
-      </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="C25" s="3">
-        <v>2066.9</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1297.848</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1044.6199999999999</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1485.82</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="C26" s="3">
-        <v>2769.85</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1768.596</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1563.77</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2057.0700000000002</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="C27" s="3">
-        <v>127.372</v>
-      </c>
-      <c r="D27" s="3">
-        <v>90.266959999999997</v>
-      </c>
-      <c r="E27" s="3">
-        <v>67.289900000000003</v>
-      </c>
-      <c r="F27" s="3">
-        <v>83.78</v>
-      </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1093.01</v>
-      </c>
-      <c r="D28" s="3">
-        <v>509.93439999999998</v>
-      </c>
-      <c r="E28" s="3">
-        <v>277.73399999999998</v>
-      </c>
-      <c r="F28" s="3">
-        <v>816.7</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C29" s="3">
-        <v>203.155</v>
-      </c>
-      <c r="D29" s="3">
-        <v>150.08560000000003</v>
-      </c>
-      <c r="E29" s="3">
-        <v>125.836</v>
-      </c>
-      <c r="F29" s="3">
-        <v>132.93</v>
-      </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="C30" s="3">
-        <v>1224.92</v>
-      </c>
-      <c r="D30" s="3">
-        <v>644.8273999999999</v>
-      </c>
-      <c r="E30" s="3">
-        <v>446.21300000000002</v>
-      </c>
-      <c r="F30" s="3">
-        <v>845.55</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="A9:A11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA6E0C28-1B64-45E1-BA6D-0B9095AD6933}">
   <dimension ref="A3:J21"/>
@@ -12990,7 +13676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA7FE94-FF94-4D10-B664-BF385AC4427A}">
   <dimension ref="A3:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="112" workbookViewId="0">
+    <sheetView zoomScale="112" workbookViewId="0">
       <selection activeCell="A24" sqref="A24:B36"/>
     </sheetView>
   </sheetViews>
@@ -13365,7 +14051,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="21" t="s">
         <v>260</v>
       </c>
       <c r="B25" t="s">
@@ -13373,19 +14059,19 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
+      <c r="A26" s="21"/>
       <c r="B26" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
+      <c r="A27" s="21"/>
       <c r="B27" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="21" t="s">
         <v>254</v>
       </c>
       <c r="B28" t="s">
@@ -13393,19 +14079,19 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
+      <c r="A29" s="21"/>
       <c r="B29" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
+      <c r="A30" s="21"/>
       <c r="B30" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="21" t="s">
         <v>255</v>
       </c>
       <c r="B31" t="s">
@@ -13413,19 +14099,19 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
+      <c r="A32" s="21"/>
       <c r="B32" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
+      <c r="A33" s="21"/>
       <c r="B33" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="21" t="s">
         <v>256</v>
       </c>
       <c r="B34" t="s">
@@ -13433,13 +14119,13 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="16"/>
+      <c r="A35" s="21"/>
       <c r="B35" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="16"/>
+      <c r="A36" s="21"/>
       <c r="B36" t="s">
         <v>271</v>
       </c>
